--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.8133743476570033</v>
+        <v>0.9989239189189486</v>
       </c>
       <c r="D2">
-        <v>0.4160418920820739</v>
+        <v>0.3248881816885114</v>
       </c>
       <c r="E2">
         <v>2.142088483069593</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1286358804252395</v>
+        <v>-0.1431471177330473</v>
       </c>
       <c r="D3">
-        <v>0.8976509072801702</v>
+        <v>0.887019006442983</v>
       </c>
       <c r="E3">
         <v>2.142088483069593</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.2238820691000553</v>
+        <v>0.2447833943557833</v>
       </c>
       <c r="D4">
-        <v>0.8228581445094436</v>
+        <v>0.8080955039427922</v>
       </c>
       <c r="E4">
         <v>2.142088483069593</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.3013946693255853</v>
+        <v>-0.2332024512668203</v>
       </c>
       <c r="D5">
-        <v>0.7631259951186726</v>
+        <v>0.8170025101505642</v>
       </c>
       <c r="E5">
         <v>2.142088483069593</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.832840371242866</v>
+        <v>-0.7395626055895445</v>
       </c>
       <c r="D6">
-        <v>0.4049742336615496</v>
+        <v>0.4646413962346965</v>
       </c>
       <c r="E6">
         <v>2.063617392351617</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.3123076071297386</v>
+        <v>-0.2590954419234484</v>
       </c>
       <c r="D7">
-        <v>0.7548196818100235</v>
+        <v>0.7971238990803957</v>
       </c>
       <c r="E7">
         <v>2.063617392351617</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.015249235132686</v>
+        <v>-0.6819652277681563</v>
       </c>
       <c r="D8">
-        <v>0.3100357801290983</v>
+        <v>0.4998806459126177</v>
       </c>
       <c r="E8">
         <v>2.063617392351617</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.364879731871468</v>
+        <v>0.5251714458173908</v>
       </c>
       <c r="D9">
-        <v>0.715216496888778</v>
+        <v>0.6028721944047715</v>
       </c>
       <c r="E9">
         <v>2.155236783528943</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.1869808912636668</v>
+        <v>-0.1296090855199939</v>
       </c>
       <c r="D10">
-        <v>0.8516831428384974</v>
+        <v>0.8976394587219785</v>
       </c>
       <c r="E10">
         <v>2.155236783528943</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.4519083338436661</v>
+        <v>-0.3041759945811227</v>
       </c>
       <c r="D11">
-        <v>0.6513544710791637</v>
+        <v>0.7628477415070645</v>
       </c>
       <c r="E11">
         <v>2.108499889864361</v>
